--- a/upload/provider.xlsx
+++ b/upload/provider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\south\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D5164-4A52-4FEE-BCD4-5AA1ABA06A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9C0D84-4E11-4A7A-9128-72DA7E1ECAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -29,19 +29,37 @@
   </si>
   <si>
     <t>娃哈哈公司</t>
+  </si>
+  <si>
+    <t>怡宝公司</t>
+  </si>
+  <si>
+    <t>农夫山泉公司</t>
+  </si>
+  <si>
+    <t>百岁山公司</t>
+  </si>
+  <si>
+    <t>山泉公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -67,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -383,13 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -407,8 +429,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>